--- a/buy_cd.xlsx
+++ b/buy_cd.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Buy CD - In Stock" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>GIVEN</t>
   </si>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="A16:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="A14:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,6 +780,9 @@
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
